--- a/data/Nedrow_2017_2.xlsx
+++ b/data/Nedrow_2017_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBAD210-2217-5D4B-BA7D-168395C734AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533246A-F6AC-FA48-AE2C-1DDA963ADC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>10_mgkg</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nedrow_(2)_1_mgkg</t>
+  </si>
+  <si>
+    <t>Nedrow_(2)_3_mgkg</t>
+  </si>
+  <si>
+    <t>Nedrow_(2)_10_mgkg</t>
   </si>
 </sst>
 </file>
@@ -536,7 +548,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I19"/>
+      <selection activeCell="J14" sqref="J14:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +586,9 @@
       <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -605,7 +619,9 @@
       <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -636,6 +652,9 @@
       <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -665,6 +684,9 @@
       <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -694,6 +716,9 @@
       <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -723,6 +748,9 @@
       <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -752,6 +780,9 @@
       <c r="I7" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -780,6 +811,9 @@
       </c>
       <c r="I8" t="s">
         <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -810,6 +844,9 @@
       <c r="I9" t="s">
         <v>30</v>
       </c>
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -839,6 +876,9 @@
       <c r="I10" t="s">
         <v>30</v>
       </c>
+      <c r="J10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -868,6 +908,9 @@
       <c r="I11" t="s">
         <v>30</v>
       </c>
+      <c r="J11" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -897,6 +940,9 @@
       <c r="I12" t="s">
         <v>30</v>
       </c>
+      <c r="J12" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -926,6 +972,9 @@
       <c r="I13" t="s">
         <v>30</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -954,6 +1003,9 @@
       </c>
       <c r="I14" t="s">
         <v>31</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -984,6 +1036,9 @@
       <c r="I15" t="s">
         <v>31</v>
       </c>
+      <c r="J15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1013,8 +1068,11 @@
       <c r="I16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24</v>
       </c>
@@ -1042,8 +1100,11 @@
       <c r="I17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>72</v>
       </c>
@@ -1071,8 +1132,11 @@
       <c r="I18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>144</v>
       </c>
@@ -1099,6 +1163,9 @@
       </c>
       <c r="I19" t="s">
         <v>31</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/Nedrow_2017_2.xlsx
+++ b/data/Nedrow_2017_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533246A-F6AC-FA48-AE2C-1DDA963ADC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758A372-CC1E-744C-8ED7-A2754E9D1FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NT2.5" sheetId="1" r:id="rId1"/>
@@ -136,13 +136,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Nedrow_(2)_1_mgkg</t>
-  </si>
-  <si>
-    <t>Nedrow_(2)_3_mgkg</t>
-  </si>
-  <si>
-    <t>Nedrow_(2)_10_mgkg</t>
+    <t>NT25_Nedrow_(2)_1_mgkg</t>
+  </si>
+  <si>
+    <t>NT25_Nedrow_(2)_3_mgkg</t>
+  </si>
+  <si>
+    <t>NT25_Nedrow_(2)_10_mgkg</t>
   </si>
 </sst>
 </file>

--- a/data/Nedrow_2017_2.xlsx
+++ b/data/Nedrow_2017_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758A372-CC1E-744C-8ED7-A2754E9D1FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E688A6-5C88-0B46-AD53-F4D344289BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>NT25_Nedrow_(2)_10_mgkg</t>
+  </si>
+  <si>
+    <t>Dose2[mg/kg]</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J19"/>
+      <selection activeCell="I2" sqref="I2:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,12 +587,14 @@
         <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
@@ -616,13 +621,15 @@
       <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -649,10 +656,13 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,10 +691,13 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -713,10 +726,13 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -745,10 +761,13 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -777,10 +796,13 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -809,10 +831,13 @@
       <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -841,10 +866,13 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -873,10 +901,13 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -905,10 +936,13 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -937,10 +971,13 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -969,10 +1006,13 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1001,10 +1041,13 @@
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1033,10 +1076,13 @@
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1065,14 +1111,17 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24</v>
       </c>
@@ -1097,14 +1146,17 @@
       <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>72</v>
       </c>
@@ -1129,14 +1181,17 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>144</v>
       </c>
@@ -1161,10 +1216,13 @@
       <c r="H19" s="5">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/Nedrow_2017_2.xlsx
+++ b/data/Nedrow_2017_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E688A6-5C88-0B46-AD53-F4D344289BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF3022F-401D-AD42-BB67-0EE01416FF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16720" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NT2.5" sheetId="1" r:id="rId1"/>
@@ -551,13 +551,14 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
